--- a/regulus/test/system_test.xlsx
+++ b/regulus/test/system_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -34,9 +34,6 @@
       <t>キタイケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.0.0</t>
   </si>
   <si>
     <t>条件</t>
@@ -79,99 +76,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通貨情報を更新する</t>
-    <rPh sb="0" eb="4">
-      <t>ツウカジョウホウ</t>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートボタンを押す</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レートボタンを押す</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１種類のグラフが表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートが表示されていること</t>
     <rPh sb="5" eb="7">
-      <t>コウシン</t>
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ツイートを更新する</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記事を更新する</t>
+    <t>記事が表示されていること</t>
     <rPh sb="0" eb="2">
       <t>キジ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・3種類のグラフが表示されていること
-・ツイートが表示されていること
-・記事が表示されていること</t>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・アクセス時と異なる通貨情報を取得していること</t>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・アクセス時と異なるツイートを取得していること</t>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・アクセス時と異なる記事を取得していること</t>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1304,7 +1263,7 @@
   <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1326,37 +1285,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="44">
+    <row r="3" spans="2:8">
       <c r="B3" s="17">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>15</v>
@@ -1368,10 +1327,10 @@
       <c r="D4" s="21"/>
       <c r="E4" s="15"/>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
@@ -1383,10 +1342,10 @@
       <c r="D5" s="21"/>
       <c r="E5" s="15"/>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>17</v>
@@ -1398,13 +1357,13 @@
       <c r="D6" s="22"/>
       <c r="E6" s="16"/>
       <c r="F6" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/regulus/test/system_test.xlsx
+++ b/regulus/test/system_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -84,13 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ツイートボタンを押す</t>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記事ボタンを押す</t>
     <rPh sb="0" eb="2">
       <t>キジ</t>
@@ -108,28 +101,128 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１種類のグラフが表示されていること</t>
-    <rPh sb="1" eb="3">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツイートが表示されていること</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記事が表示されていること</t>
-    <rPh sb="0" eb="2">
+    <t>「ツイート」をクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・/ratesにリダイレクトされること
+・「レート」が表示されていること
+・「ツイート」が表示されていること
+・「記事」が表示されていること
+・「レート」の背景が黒くなっていること
+・グラフが表示されていること</t>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
       <t>キジ</t>
     </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「レート」が表示されていること
+・「ツイート」が表示されていること
+・「記事」が表示されていること
+・「ツイート」の背景が黒くなっていること
+・ツイートが表示されていること</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「レート」が表示されていること
+・「ツイート」が表示されていること
+・「記事」が表示されていること
+・「記事」の背景が黒くなっていること
+・記事が表示されていること</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「レート」が表示されていること
+・「ツイート」が表示されていること
+・「記事」が表示されていること
+・「レート」の背景が黒くなっていること
+・グラフが表示されていること</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キジガ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1263,7 +1356,7 @@
   <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1300,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" ht="83">
       <c r="B3" s="17">
         <v>1</v>
       </c>
@@ -1321,13 +1414,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" ht="70">
       <c r="B4" s="18"/>
       <c r="C4" s="15"/>
       <c r="D4" s="21"/>
       <c r="E4" s="15"/>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
@@ -1336,13 +1429,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" ht="70">
       <c r="B5" s="18"/>
       <c r="C5" s="15"/>
       <c r="D5" s="21"/>
       <c r="E5" s="15"/>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>10</v>
@@ -1351,19 +1444,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="19" thickBot="1">
+    <row r="6" spans="2:8" ht="71" thickBot="1">
       <c r="B6" s="19"/>
       <c r="C6" s="16"/>
       <c r="D6" s="22"/>
       <c r="E6" s="16"/>
       <c r="F6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/regulus/test/system_test.xlsx
+++ b/regulus/test/system_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.1.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記事ボタンを押す</t>
     <rPh sb="0" eb="2">
       <t>キジ</t>
@@ -102,6 +98,116 @@
   </si>
   <si>
     <t>「ツイート」をクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフを変更する</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webページにアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペアを選択する</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間を選択する</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"EURJPY"を選択</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"10-min"を選択</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ツイート」の背景が黒くなっていること
+・ツイートが表示されていること</t>
+    <rPh sb="8" eb="10">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「記事」の背景が黒くなっていること
+・記事が表示されていること</t>
+    <rPh sb="2" eb="4">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・URLに"pair=EURJPY&amp;interval=5-min"が付いていること
+・"EURJPY"が選択されていること
+・"5-min"が選択されていること</t>
+    <rPh sb="34" eb="35">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・URLに"pair=EURJPY&amp;interval=10-min"が付いていること
+・"EURJPY"が選択されていること
+・"10-min"が選択されていること</t>
+    <rPh sb="35" eb="36">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -110,6 +216,8 @@
 ・「ツイート」が表示されていること
 ・「記事」が表示されていること
 ・「レート」の背景が黒くなっていること
+・"JSDJPY"が選択されていること
+・"5-min"が選択されていること
 ・グラフが表示されていること</t>
     <rPh sb="27" eb="29">
       <t>ヒョウジ</t>
@@ -129,100 +237,65 @@
     <rPh sb="81" eb="82">
       <t>クロ</t>
     </rPh>
-    <rPh sb="96" eb="98">
+    <rPh sb="101" eb="103">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="135" eb="137">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・「レート」が表示されていること
-・「ツイート」が表示されていること
-・「記事」が表示されていること
-・「ツイート」の背景が黒くなっていること
-・ツイートが表示されていること</t>
+    <t>・「レート」の背景が黒くなっていること
+・"JSDJPY"が選択されていること
+・"5-min"が選択されていること
+・グラフが表示されていること</t>
     <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「レート」が表示されていること
-・「ツイート」が表示されていること
-・「記事」が表示されていること
-・「記事」の背景が黒くなっていること
-・記事が表示されていること</t>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「レート」が表示されていること
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・/ratesにリダイレクトされること
+・「レート」が表示されていること
 ・「ツイート」が表示されていること
 ・「記事」が表示されていること
 ・「レート」の背景が黒くなっていること
+・"JSDJPY"が選択されていること
+・"5-min"が選択されていること
 ・グラフが表示されていること</t>
-    <rPh sb="7" eb="9">
+    <rPh sb="27" eb="29">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="45" eb="47">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="37" eb="39">
-      <t>キジガ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
+    <rPh sb="57" eb="59">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="58" eb="60">
+    <rPh sb="78" eb="80">
       <t>ハイケイ</t>
     </rPh>
-    <rPh sb="61" eb="62">
+    <rPh sb="81" eb="82">
       <t>クロ</t>
     </rPh>
-    <rPh sb="76" eb="78">
+    <rPh sb="135" eb="137">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -281,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -406,14 +479,92 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -425,22 +576,46 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -453,99 +628,25 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -758,7 +859,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -773,14 +874,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -791,31 +916,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1353,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1393,78 +1525,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="83">
-      <c r="B3" s="17">
+    <row r="3" spans="2:8" ht="109">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>15</v>
+      <c r="H3" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="70">
-      <c r="B4" s="18"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="15"/>
+    <row r="4" spans="2:8" ht="31">
+      <c r="B4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="70">
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="15"/>
+    <row r="5" spans="2:8" ht="31">
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="57">
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="109">
+      <c r="B7" s="22">
+        <v>2</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="44">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26" t="s">
         <v>17</v>
       </c>
+      <c r="G8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" ht="71" thickBot="1">
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="10" t="s">
+    <row r="9" spans="2:8" ht="45" thickBot="1">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33" t="s">
         <v>18</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/regulus/test/system_test.xlsx
+++ b/regulus/test/system_test.xlsx
@@ -80,23 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>記事ボタンを押す</t>
-    <rPh sb="0" eb="2">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レートボタンを押す</t>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「ツイート」をクリック</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -211,12 +194,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>・/ratesにリダイレクトされること
 ・「レート」が表示されていること
 ・「ツイート」が表示されていること
 ・「記事」が表示されていること
 ・「レート」の背景が黒くなっていること
-・"JSDJPY"が選択されていること
+・"USDJPY"が選択されていること
 ・"5-min"が選択されていること
 ・グラフが表示されていること</t>
     <rPh sb="27" eb="29">
@@ -250,7 +237,7 @@
   </si>
   <si>
     <t>・「レート」の背景が黒くなっていること
-・"JSDJPY"が選択されていること
+・"USDJPY"が選択されていること
 ・"5-min"が選択されていること
 ・グラフが表示されていること</t>
     <rPh sb="7" eb="9">
@@ -262,10 +249,6 @@
     <rPh sb="64" eb="66">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -274,7 +257,7 @@
 ・「ツイート」が表示されていること
 ・「記事」が表示されていること
 ・「レート」の背景が黒くなっていること
-・"JSDJPY"が選択されていること
+・"USDJPY"が選択されていること
 ・"5-min"が選択されていること
 ・グラフが表示されていること</t>
     <rPh sb="27" eb="29">
@@ -298,6 +281,17 @@
     <rPh sb="135" eb="137">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「記事」をクリック</t>
+    <rPh sb="1" eb="3">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「レート」をクリック</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -889,24 +883,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -915,18 +891,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -935,20 +899,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="205">
@@ -1488,7 +1482,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1526,16 +1520,16 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="109">
-      <c r="B3" s="15">
+      <c r="B3" s="22">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1543,101 +1537,101 @@
         <v>9</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="31">
-      <c r="B4" s="16"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="31">
-      <c r="B5" s="16"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="57">
-      <c r="B6" s="16"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>26</v>
+      <c r="H6" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="109">
-      <c r="B7" s="22">
+      <c r="B7" s="26">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28" t="s">
-        <v>28</v>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="44">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="45" thickBot="1">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
